--- a/test/Section_TEST_branch_EqualSpan.xlsx
+++ b/test/Section_TEST_branch_EqualSpan.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\63427\Desktop\Code\鋼床鈑\Steeldeckgirder\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6332A11C-E193-41D3-B1A7-81E27DE06505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="等價支間長" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1510,12 +1504,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1523,15 +1517,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1577,25 +1564,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1633,7 +1612,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1667,7 +1646,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1702,10 +1680,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1878,17 +1855,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1911,7 +1885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1934,7 +1908,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1957,7 +1931,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1980,7 +1954,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2003,7 +1977,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2026,7 +2000,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2049,7 +2023,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2072,7 +2046,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2095,7 +2069,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2118,7 +2092,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2141,7 +2115,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -2164,7 +2138,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2187,7 +2161,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -2210,7 +2184,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -2233,7 +2207,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -2256,7 +2230,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2279,7 +2253,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,7 +2276,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -2325,7 +2299,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2348,7 +2322,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -2371,7 +2345,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2394,7 +2368,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -2417,7 +2391,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -2440,7 +2414,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -2463,7 +2437,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -2486,7 +2460,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -2509,7 +2483,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -2532,7 +2506,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -2555,7 +2529,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -2578,7 +2552,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -2601,7 +2575,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,7 +2598,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -2647,7 +2621,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -2670,7 +2644,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -2693,7 +2667,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -2716,7 +2690,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -2739,7 +2713,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -2762,7 +2736,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -2785,7 +2759,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -2808,7 +2782,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2831,7 +2805,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -2854,7 +2828,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2877,7 +2851,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -2900,7 +2874,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -2923,7 +2897,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -2946,7 +2920,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -2969,7 +2943,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -2992,7 +2966,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -3015,7 +2989,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -3038,7 +3012,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -3061,7 +3035,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
@@ -3084,7 +3058,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -3107,7 +3081,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -3130,7 +3104,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
@@ -3153,7 +3127,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
@@ -3176,7 +3150,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -3199,7 +3173,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
@@ -3222,7 +3196,7 @@
         <v>127500</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
@@ -3245,7 +3219,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
@@ -3268,7 +3242,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -3291,7 +3265,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
@@ -3314,7 +3288,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -3337,7 +3311,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -3360,7 +3334,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -3383,7 +3357,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -3406,7 +3380,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -3429,7 +3403,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -3452,7 +3426,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -3475,7 +3449,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -3498,7 +3472,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -3521,7 +3495,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -3544,7 +3518,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -3567,7 +3541,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -3590,7 +3564,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -3613,7 +3587,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -3636,7 +3610,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -3659,7 +3633,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
@@ -3682,7 +3656,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
@@ -3705,7 +3679,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
@@ -3728,7 +3702,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>86</v>
       </c>
@@ -3751,7 +3725,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
@@ -3774,7 +3748,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>88</v>
       </c>
@@ -3797,7 +3771,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
@@ -3820,7 +3794,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
@@ -3843,7 +3817,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
@@ -3866,7 +3840,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -3889,7 +3863,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
@@ -3912,7 +3886,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -3935,7 +3909,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -3958,7 +3932,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -3981,7 +3955,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
@@ -4004,7 +3978,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -4027,7 +4001,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -4050,7 +4024,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -4073,7 +4047,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -4096,7 +4070,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
@@ -4119,7 +4093,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
@@ -4142,7 +4116,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
@@ -4165,7 +4139,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
@@ -4188,7 +4162,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
@@ -4211,7 +4185,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
@@ -4234,7 +4208,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
@@ -4257,7 +4231,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
@@ -4280,7 +4254,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
@@ -4303,7 +4277,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>111</v>
       </c>
@@ -4326,7 +4300,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>112</v>
       </c>
@@ -4349,7 +4323,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>113</v>
       </c>
@@ -4372,7 +4346,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
         <v>114</v>
       </c>
@@ -4395,7 +4369,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
         <v>115</v>
       </c>
@@ -4418,7 +4392,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
         <v>116</v>
       </c>
@@ -4441,7 +4415,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
         <v>117</v>
       </c>
@@ -4464,7 +4438,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
@@ -4487,7 +4461,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
@@ -4510,7 +4484,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
@@ -4533,7 +4507,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
@@ -4556,7 +4530,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
@@ -4579,7 +4553,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
@@ -4602,7 +4576,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
@@ -4625,7 +4599,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>125</v>
       </c>
@@ -4648,7 +4622,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
         <v>126</v>
       </c>
@@ -4671,7 +4645,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
         <v>127</v>
       </c>
@@ -4694,7 +4668,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
         <v>128</v>
       </c>
@@ -4717,7 +4691,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
         <v>129</v>
       </c>
@@ -4740,7 +4714,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>130</v>
       </c>
@@ -4763,7 +4737,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
         <v>131</v>
       </c>
@@ -4786,7 +4760,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
         <v>132</v>
       </c>
@@ -4809,7 +4783,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
         <v>133</v>
       </c>
@@ -4832,7 +4806,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
         <v>134</v>
       </c>
@@ -4855,7 +4829,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>135</v>
       </c>
@@ -4878,7 +4852,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>136</v>
       </c>
@@ -4901,7 +4875,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
         <v>137</v>
       </c>
@@ -4924,7 +4898,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
         <v>138</v>
       </c>
@@ -4947,7 +4921,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
         <v>139</v>
       </c>
@@ -4970,7 +4944,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
         <v>140</v>
       </c>
@@ -4993,7 +4967,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
         <v>141</v>
       </c>
@@ -5016,7 +4990,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
         <v>142</v>
       </c>
@@ -5039,7 +5013,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
         <v>143</v>
       </c>
@@ -5062,7 +5036,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
         <v>144</v>
       </c>
@@ -5085,7 +5059,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
         <v>145</v>
       </c>
@@ -5108,7 +5082,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
         <v>146</v>
       </c>
@@ -5131,7 +5105,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
         <v>147</v>
       </c>
@@ -5154,7 +5128,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
         <v>148</v>
       </c>
@@ -5177,7 +5151,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
         <v>149</v>
       </c>
@@ -5200,7 +5174,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
         <v>150</v>
       </c>
@@ -5223,7 +5197,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
         <v>151</v>
       </c>
@@ -5246,7 +5220,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
         <v>152</v>
       </c>
@@ -5269,7 +5243,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
         <v>153</v>
       </c>
@@ -5292,7 +5266,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
         <v>154</v>
       </c>
@@ -5315,7 +5289,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
         <v>155</v>
       </c>
@@ -5338,7 +5312,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
         <v>156</v>
       </c>
@@ -5361,7 +5335,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
         <v>157</v>
       </c>
@@ -5384,7 +5358,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
         <v>158</v>
       </c>
@@ -5407,7 +5381,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
         <v>159</v>
       </c>
@@ -5430,7 +5404,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
         <v>160</v>
       </c>
@@ -5453,7 +5427,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
@@ -5476,7 +5450,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
         <v>162</v>
       </c>
@@ -5499,7 +5473,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
         <v>163</v>
       </c>
@@ -5522,7 +5496,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
         <v>164</v>
       </c>
@@ -5545,7 +5519,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
         <v>165</v>
       </c>
@@ -5568,7 +5542,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
         <v>166</v>
       </c>
@@ -5591,7 +5565,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
         <v>167</v>
       </c>
@@ -5614,7 +5588,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
         <v>168</v>
       </c>
@@ -5637,7 +5611,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
         <v>169</v>
       </c>
@@ -5660,7 +5634,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
         <v>170</v>
       </c>
@@ -5683,7 +5657,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
         <v>171</v>
       </c>
@@ -5706,7 +5680,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
         <v>172</v>
       </c>
@@ -5729,7 +5703,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
         <v>173</v>
       </c>
@@ -5752,7 +5726,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
         <v>174</v>
       </c>
@@ -5775,7 +5749,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
         <v>175</v>
       </c>
@@ -5798,7 +5772,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
         <v>176</v>
       </c>
@@ -5821,7 +5795,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
         <v>177</v>
       </c>
@@ -5844,7 +5818,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
         <v>178</v>
       </c>
@@ -5867,7 +5841,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
         <v>179</v>
       </c>
@@ -5890,7 +5864,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
         <v>180</v>
       </c>
@@ -5913,7 +5887,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
         <v>181</v>
       </c>
@@ -5936,7 +5910,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
         <v>182</v>
       </c>
@@ -5959,7 +5933,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
         <v>183</v>
       </c>
@@ -5982,7 +5956,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
         <v>184</v>
       </c>
@@ -6005,7 +5979,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
         <v>185</v>
       </c>
@@ -6028,7 +6002,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
         <v>186</v>
       </c>
@@ -6051,7 +6025,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
         <v>187</v>
       </c>
@@ -6074,7 +6048,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
         <v>188</v>
       </c>
@@ -6097,7 +6071,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
         <v>189</v>
       </c>
@@ -6120,7 +6094,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
         <v>190</v>
       </c>
@@ -6143,7 +6117,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="1" t="s">
         <v>191</v>
       </c>
@@ -6166,7 +6140,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
         <v>192</v>
       </c>
@@ -6189,7 +6163,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
         <v>193</v>
       </c>
@@ -6212,7 +6186,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
         <v>194</v>
       </c>
@@ -6235,7 +6209,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
         <v>195</v>
       </c>
@@ -6258,7 +6232,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
         <v>196</v>
       </c>
@@ -6281,7 +6255,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="1" t="s">
         <v>197</v>
       </c>
@@ -6304,7 +6278,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="1" t="s">
         <v>198</v>
       </c>
@@ -6327,7 +6301,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
         <v>199</v>
       </c>
@@ -6350,7 +6324,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
         <v>200</v>
       </c>
@@ -6373,7 +6347,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="1" t="s">
         <v>201</v>
       </c>
@@ -6396,7 +6370,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
         <v>202</v>
       </c>
@@ -6419,7 +6393,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="1" t="s">
         <v>203</v>
       </c>
@@ -6442,7 +6416,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="1" t="s">
         <v>204</v>
       </c>
@@ -6465,7 +6439,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="1" t="s">
         <v>205</v>
       </c>
@@ -6488,7 +6462,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="1" t="s">
         <v>206</v>
       </c>
@@ -6511,7 +6485,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="1" t="s">
         <v>207</v>
       </c>
@@ -6534,7 +6508,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="1" t="s">
         <v>208</v>
       </c>
@@ -6557,7 +6531,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="1" t="s">
         <v>209</v>
       </c>
@@ -6580,7 +6554,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="1" t="s">
         <v>210</v>
       </c>
@@ -6603,7 +6577,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="1" t="s">
         <v>211</v>
       </c>
@@ -6626,7 +6600,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="1" t="s">
         <v>212</v>
       </c>
@@ -6649,7 +6623,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="1" t="s">
         <v>213</v>
       </c>
@@ -6672,7 +6646,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
         <v>214</v>
       </c>
@@ -6695,7 +6669,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
         <v>215</v>
       </c>
@@ -6718,7 +6692,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
         <v>216</v>
       </c>
@@ -6741,7 +6715,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="1" t="s">
         <v>217</v>
       </c>
@@ -6764,7 +6738,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
         <v>218</v>
       </c>
@@ -6787,7 +6761,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
         <v>219</v>
       </c>
@@ -6810,7 +6784,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
         <v>220</v>
       </c>
@@ -6833,7 +6807,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
         <v>221</v>
       </c>
@@ -6856,7 +6830,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
         <v>222</v>
       </c>
@@ -6879,7 +6853,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
         <v>223</v>
       </c>
@@ -6902,7 +6876,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="1" t="s">
         <v>224</v>
       </c>
@@ -6925,7 +6899,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
         <v>225</v>
       </c>
@@ -6948,7 +6922,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
         <v>226</v>
       </c>
@@ -6971,7 +6945,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
         <v>227</v>
       </c>
@@ -6994,7 +6968,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
         <v>228</v>
       </c>
@@ -7017,7 +6991,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
         <v>229</v>
       </c>
@@ -7040,7 +7014,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
         <v>230</v>
       </c>
@@ -7063,7 +7037,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
         <v>231</v>
       </c>
@@ -7086,7 +7060,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
         <v>232</v>
       </c>
@@ -7109,7 +7083,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
         <v>233</v>
       </c>
@@ -7132,7 +7106,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
         <v>234</v>
       </c>
@@ -7155,7 +7129,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
         <v>235</v>
       </c>
@@ -7178,7 +7152,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
         <v>236</v>
       </c>
@@ -7201,7 +7175,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
         <v>237</v>
       </c>
@@ -7224,7 +7198,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
         <v>238</v>
       </c>
@@ -7247,7 +7221,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
         <v>239</v>
       </c>
@@ -7270,7 +7244,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
         <v>240</v>
       </c>
@@ -7293,7 +7267,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
         <v>241</v>
       </c>
@@ -7316,7 +7290,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
         <v>242</v>
       </c>
@@ -7339,7 +7313,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
         <v>243</v>
       </c>
@@ -7362,7 +7336,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
         <v>244</v>
       </c>
@@ -7385,7 +7359,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
         <v>245</v>
       </c>
@@ -7408,7 +7382,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="1" t="s">
         <v>246</v>
       </c>
@@ -7431,7 +7405,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
         <v>247</v>
       </c>
@@ -7454,7 +7428,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
         <v>248</v>
       </c>
@@ -7477,7 +7451,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="1" t="s">
         <v>249</v>
       </c>
@@ -7500,7 +7474,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
         <v>250</v>
       </c>
@@ -7523,7 +7497,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="1" t="s">
         <v>251</v>
       </c>
@@ -7546,7 +7520,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
         <v>252</v>
       </c>
@@ -7569,7 +7543,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="1" t="s">
         <v>253</v>
       </c>
@@ -7592,7 +7566,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="1" t="s">
         <v>254</v>
       </c>
@@ -7615,7 +7589,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="1" t="s">
         <v>255</v>
       </c>
@@ -7638,7 +7612,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
         <v>256</v>
       </c>
@@ -7661,7 +7635,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
         <v>257</v>
       </c>
@@ -7684,7 +7658,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
         <v>258</v>
       </c>
@@ -7707,7 +7681,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
         <v>259</v>
       </c>
@@ -7730,7 +7704,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
         <v>260</v>
       </c>
@@ -7753,7 +7727,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
         <v>261</v>
       </c>
@@ -7776,7 +7750,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
         <v>262</v>
       </c>
@@ -7799,7 +7773,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
         <v>263</v>
       </c>
@@ -7822,7 +7796,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="1" t="s">
         <v>264</v>
       </c>
@@ -7845,7 +7819,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
         <v>265</v>
       </c>
@@ -7868,7 +7842,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="1" t="s">
         <v>266</v>
       </c>
@@ -7891,7 +7865,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="1" t="s">
         <v>267</v>
       </c>
@@ -7914,7 +7888,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="1" t="s">
         <v>268</v>
       </c>
@@ -7937,7 +7911,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="1" t="s">
         <v>269</v>
       </c>
@@ -7960,7 +7934,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="1" t="s">
         <v>270</v>
       </c>
@@ -7983,7 +7957,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="1" t="s">
         <v>271</v>
       </c>
@@ -8006,7 +7980,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="1" t="s">
         <v>272</v>
       </c>
@@ -8029,7 +8003,7 @@
         <v>127500</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="1" t="s">
         <v>273</v>
       </c>
@@ -8052,7 +8026,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="1" t="s">
         <v>274</v>
       </c>
@@ -8075,7 +8049,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="1" t="s">
         <v>275</v>
       </c>
@@ -8098,7 +8072,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="1" t="s">
         <v>276</v>
       </c>
@@ -8121,7 +8095,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
         <v>277</v>
       </c>
@@ -8144,7 +8118,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="1" t="s">
         <v>278</v>
       </c>
@@ -8167,7 +8141,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="1" t="s">
         <v>279</v>
       </c>
@@ -8190,7 +8164,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="1" t="s">
         <v>280</v>
       </c>
@@ -8213,7 +8187,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" s="1" t="s">
         <v>281</v>
       </c>
@@ -8236,7 +8210,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" s="1" t="s">
         <v>282</v>
       </c>
@@ -8259,7 +8233,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" s="1" t="s">
         <v>283</v>
       </c>
@@ -8282,7 +8256,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" s="1" t="s">
         <v>284</v>
       </c>
@@ -8305,7 +8279,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" s="1" t="s">
         <v>285</v>
       </c>
@@ -8328,7 +8302,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" s="1" t="s">
         <v>286</v>
       </c>
@@ -8351,7 +8325,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" s="1" t="s">
         <v>287</v>
       </c>
@@ -8374,7 +8348,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" s="1" t="s">
         <v>288</v>
       </c>
@@ -8397,7 +8371,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" s="1" t="s">
         <v>289</v>
       </c>
@@ -8420,7 +8394,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" s="1" t="s">
         <v>290</v>
       </c>
@@ -8443,7 +8417,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
         <v>291</v>
       </c>
@@ -8466,7 +8440,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" s="1" t="s">
         <v>292</v>
       </c>
@@ -8489,7 +8463,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" s="1" t="s">
         <v>293</v>
       </c>
@@ -8512,7 +8486,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" s="1" t="s">
         <v>294</v>
       </c>
@@ -8535,7 +8509,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" s="1" t="s">
         <v>295</v>
       </c>
@@ -8558,7 +8532,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" s="1" t="s">
         <v>296</v>
       </c>
@@ -8581,7 +8555,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" s="1" t="s">
         <v>297</v>
       </c>
@@ -8604,7 +8578,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" s="1" t="s">
         <v>298</v>
       </c>
@@ -8627,7 +8601,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" s="1" t="s">
         <v>299</v>
       </c>
@@ -8650,7 +8624,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" s="1" t="s">
         <v>300</v>
       </c>
@@ -8673,7 +8647,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" s="1" t="s">
         <v>301</v>
       </c>
@@ -8696,7 +8670,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" s="1" t="s">
         <v>302</v>
       </c>
@@ -8719,7 +8693,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" s="1" t="s">
         <v>303</v>
       </c>
@@ -8742,7 +8716,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" s="1" t="s">
         <v>304</v>
       </c>
@@ -8765,7 +8739,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" s="1" t="s">
         <v>305</v>
       </c>
@@ -8788,7 +8762,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" s="1" t="s">
         <v>306</v>
       </c>
@@ -8811,7 +8785,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" s="1" t="s">
         <v>307</v>
       </c>
@@ -8834,7 +8808,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" s="1" t="s">
         <v>308</v>
       </c>
@@ -8857,7 +8831,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" s="1" t="s">
         <v>309</v>
       </c>
@@ -8880,7 +8854,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" s="1" t="s">
         <v>310</v>
       </c>
@@ -8903,7 +8877,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" s="1" t="s">
         <v>311</v>
       </c>
@@ -8926,7 +8900,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" s="1" t="s">
         <v>312</v>
       </c>
@@ -8949,7 +8923,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" s="1" t="s">
         <v>313</v>
       </c>
@@ -8972,7 +8946,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" s="1" t="s">
         <v>314</v>
       </c>
@@ -8995,7 +8969,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" s="1" t="s">
         <v>315</v>
       </c>
@@ -9018,7 +8992,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" s="1" t="s">
         <v>316</v>
       </c>
@@ -9041,7 +9015,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" s="1" t="s">
         <v>317</v>
       </c>
@@ -9064,7 +9038,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" s="1" t="s">
         <v>318</v>
       </c>
@@ -9087,7 +9061,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" s="1" t="s">
         <v>319</v>
       </c>
@@ -9110,7 +9084,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" s="1" t="s">
         <v>320</v>
       </c>
@@ -9133,7 +9107,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" s="1" t="s">
         <v>321</v>
       </c>
@@ -9156,7 +9130,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" s="1" t="s">
         <v>322</v>
       </c>
@@ -9179,7 +9153,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" s="1" t="s">
         <v>323</v>
       </c>
@@ -9202,7 +9176,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" s="1" t="s">
         <v>324</v>
       </c>
@@ -9225,7 +9199,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" s="1" t="s">
         <v>325</v>
       </c>
@@ -9248,7 +9222,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" s="1" t="s">
         <v>326</v>
       </c>
@@ -9271,7 +9245,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" s="1" t="s">
         <v>327</v>
       </c>
@@ -9294,7 +9268,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" s="1" t="s">
         <v>328</v>
       </c>
@@ -9317,7 +9291,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" s="1" t="s">
         <v>329</v>
       </c>
@@ -9340,7 +9314,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" s="1" t="s">
         <v>330</v>
       </c>
@@ -9363,7 +9337,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" s="1" t="s">
         <v>331</v>
       </c>
@@ -9386,7 +9360,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" s="1" t="s">
         <v>332</v>
       </c>
@@ -9409,7 +9383,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" s="1" t="s">
         <v>333</v>
       </c>
@@ -9432,7 +9406,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" s="1" t="s">
         <v>334</v>
       </c>
@@ -9455,7 +9429,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" s="1" t="s">
         <v>335</v>
       </c>
@@ -9478,7 +9452,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" s="1" t="s">
         <v>336</v>
       </c>
@@ -9501,7 +9475,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" s="1" t="s">
         <v>337</v>
       </c>
@@ -9524,7 +9498,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" s="1" t="s">
         <v>338</v>
       </c>
@@ -9547,7 +9521,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" s="1" t="s">
         <v>339</v>
       </c>
@@ -9570,7 +9544,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" s="1" t="s">
         <v>340</v>
       </c>
@@ -9593,7 +9567,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" s="1" t="s">
         <v>341</v>
       </c>
@@ -9616,7 +9590,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" s="1" t="s">
         <v>342</v>
       </c>
@@ -9639,7 +9613,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" s="1" t="s">
         <v>343</v>
       </c>
@@ -9662,7 +9636,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" s="1" t="s">
         <v>344</v>
       </c>
@@ -9685,7 +9659,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" s="1" t="s">
         <v>345</v>
       </c>
@@ -9708,7 +9682,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" s="1" t="s">
         <v>346</v>
       </c>
@@ -9731,7 +9705,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" s="1" t="s">
         <v>347</v>
       </c>
@@ -9754,7 +9728,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" s="1" t="s">
         <v>348</v>
       </c>
@@ -9777,7 +9751,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" s="1" t="s">
         <v>349</v>
       </c>
@@ -9800,7 +9774,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" s="1" t="s">
         <v>350</v>
       </c>
@@ -9823,7 +9797,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" s="1" t="s">
         <v>351</v>
       </c>
@@ -9846,7 +9820,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" s="1" t="s">
         <v>352</v>
       </c>
@@ -9869,7 +9843,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" s="1" t="s">
         <v>353</v>
       </c>
@@ -9892,7 +9866,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" s="1" t="s">
         <v>354</v>
       </c>
@@ -9915,7 +9889,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" s="1" t="s">
         <v>355</v>
       </c>
@@ -9938,7 +9912,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" s="1" t="s">
         <v>356</v>
       </c>
@@ -9961,7 +9935,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" s="1" t="s">
         <v>357</v>
       </c>
@@ -9984,7 +9958,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" s="1" t="s">
         <v>358</v>
       </c>
@@ -10007,7 +9981,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" s="1" t="s">
         <v>359</v>
       </c>
@@ -10030,7 +10004,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" s="1" t="s">
         <v>360</v>
       </c>
@@ -10053,7 +10027,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" s="1" t="s">
         <v>361</v>
       </c>
@@ -10076,7 +10050,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" s="1" t="s">
         <v>362</v>
       </c>
@@ -10099,7 +10073,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" s="1" t="s">
         <v>363</v>
       </c>
@@ -10122,7 +10096,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" s="1" t="s">
         <v>364</v>
       </c>
@@ -10145,7 +10119,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" s="1" t="s">
         <v>365</v>
       </c>
@@ -10168,7 +10142,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" s="1" t="s">
         <v>366</v>
       </c>
@@ -10191,7 +10165,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" s="1" t="s">
         <v>367</v>
       </c>
@@ -10214,7 +10188,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" s="1" t="s">
         <v>368</v>
       </c>
@@ -10237,7 +10211,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" s="1" t="s">
         <v>369</v>
       </c>
@@ -10260,7 +10234,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" s="1" t="s">
         <v>370</v>
       </c>
@@ -10283,7 +10257,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" s="1" t="s">
         <v>371</v>
       </c>
@@ -10306,7 +10280,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" s="1" t="s">
         <v>372</v>
       </c>
@@ -10329,7 +10303,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" s="1" t="s">
         <v>373</v>
       </c>
@@ -10352,7 +10326,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" s="1" t="s">
         <v>374</v>
       </c>
@@ -10375,7 +10349,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" s="1" t="s">
         <v>375</v>
       </c>
@@ -10398,7 +10372,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" s="1" t="s">
         <v>376</v>
       </c>
@@ -10421,7 +10395,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" s="1" t="s">
         <v>377</v>
       </c>
@@ -10444,7 +10418,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" s="1" t="s">
         <v>378</v>
       </c>
@@ -10467,7 +10441,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" s="1" t="s">
         <v>379</v>
       </c>
@@ -10490,7 +10464,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" s="1" t="s">
         <v>380</v>
       </c>
@@ -10513,7 +10487,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" s="1" t="s">
         <v>381</v>
       </c>
@@ -10536,7 +10510,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" s="1" t="s">
         <v>382</v>
       </c>
@@ -10559,7 +10533,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" s="1" t="s">
         <v>383</v>
       </c>
@@ -10582,7 +10556,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" s="1" t="s">
         <v>384</v>
       </c>
@@ -10605,7 +10579,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" s="1" t="s">
         <v>385</v>
       </c>
@@ -10628,7 +10602,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" s="1" t="s">
         <v>386</v>
       </c>
@@ -10651,7 +10625,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" s="1" t="s">
         <v>387</v>
       </c>
@@ -10674,7 +10648,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" s="1" t="s">
         <v>388</v>
       </c>
@@ -10697,7 +10671,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" s="1" t="s">
         <v>389</v>
       </c>
@@ -10720,7 +10694,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" s="1" t="s">
         <v>390</v>
       </c>
@@ -10743,7 +10717,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" s="1" t="s">
         <v>391</v>
       </c>
@@ -10766,7 +10740,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7">
       <c r="A387" s="1" t="s">
         <v>392</v>
       </c>
@@ -10789,7 +10763,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7">
       <c r="A388" s="1" t="s">
         <v>393</v>
       </c>
@@ -10812,7 +10786,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" s="1" t="s">
         <v>394</v>
       </c>
@@ -10835,7 +10809,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" s="1" t="s">
         <v>395</v>
       </c>
@@ -10858,7 +10832,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" s="1" t="s">
         <v>396</v>
       </c>
@@ -10881,7 +10855,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" s="1" t="s">
         <v>397</v>
       </c>
@@ -10904,7 +10878,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7">
       <c r="A393" s="1" t="s">
         <v>398</v>
       </c>
@@ -10927,7 +10901,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" s="1" t="s">
         <v>399</v>
       </c>
@@ -10950,7 +10924,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" s="1" t="s">
         <v>400</v>
       </c>
@@ -10973,7 +10947,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" s="1" t="s">
         <v>401</v>
       </c>
@@ -10996,7 +10970,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" s="1" t="s">
         <v>402</v>
       </c>
@@ -11019,7 +10993,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" s="1" t="s">
         <v>403</v>
       </c>
@@ -11042,7 +11016,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" s="1" t="s">
         <v>404</v>
       </c>
@@ -11065,7 +11039,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" s="1" t="s">
         <v>405</v>
       </c>
@@ -11088,7 +11062,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" s="1" t="s">
         <v>406</v>
       </c>
@@ -11111,7 +11085,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" s="1" t="s">
         <v>407</v>
       </c>
@@ -11134,7 +11108,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" s="1" t="s">
         <v>408</v>
       </c>
@@ -11157,7 +11131,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" s="1" t="s">
         <v>409</v>
       </c>
@@ -11180,7 +11154,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" s="1" t="s">
         <v>410</v>
       </c>
@@ -11203,7 +11177,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" s="1" t="s">
         <v>411</v>
       </c>
@@ -11226,7 +11200,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" s="1" t="s">
         <v>412</v>
       </c>
@@ -11249,7 +11223,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" s="1" t="s">
         <v>413</v>
       </c>
@@ -11272,7 +11246,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" s="1" t="s">
         <v>414</v>
       </c>
@@ -11295,7 +11269,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" s="1" t="s">
         <v>415</v>
       </c>
@@ -11318,7 +11292,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" s="1" t="s">
         <v>416</v>
       </c>
@@ -11341,7 +11315,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" s="1" t="s">
         <v>417</v>
       </c>
@@ -11364,7 +11338,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" s="1" t="s">
         <v>418</v>
       </c>
@@ -11387,7 +11361,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" s="1" t="s">
         <v>419</v>
       </c>
@@ -11410,7 +11384,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" s="1" t="s">
         <v>420</v>
       </c>
@@ -11433,7 +11407,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" s="1" t="s">
         <v>421</v>
       </c>
@@ -11456,7 +11430,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" s="1" t="s">
         <v>422</v>
       </c>
@@ -11479,7 +11453,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" s="1" t="s">
         <v>423</v>
       </c>
@@ -11502,7 +11476,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7">
       <c r="A419" s="1" t="s">
         <v>424</v>
       </c>
@@ -11526,7 +11500,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>